--- a/data/excel_files/연_외국인체류자.xlsx
+++ b/data/excel_files/연_외국인체류자.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7093C113-2D16-F346-B534-EC7C7E231B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4819A13-70B5-5142-9B05-89BF7F9442B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="3240" windowWidth="11960" windowHeight="16940" xr2:uid="{C5425F65-CB0F-0144-A239-5F01BF9A41B3}"/>
+    <workbookView xWindow="8600" yWindow="4100" windowWidth="27900" windowHeight="16940" xr2:uid="{2EAEFC13-4AFC-9F46-8F7F-AC757E1981D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>총계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2003년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +96,7 @@
     <t>2019년</t>
   </si>
   <si>
-    <t>총계</t>
+    <t>2020년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,10 +129,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -139,9 +169,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE98391A-BAFC-A446-BC1C-68EEC90A4331}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321EE379-3BE5-5D44-BC08-87BB88B0C695}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -470,143 +506,151 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>168875</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>678687</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>178530</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>750873</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>253729</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>747467</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>302963</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>910149</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>300360</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1066273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>302174</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1158866</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>232844</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1168477</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>293070</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1261415</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>307249</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1395077</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>300177</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1445103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>360473</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1576034</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>407063</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1797618</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>372935</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1899519</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>402203</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2049441</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>452657</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2180498</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>495079</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2367607</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>34222</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2524656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2077053</v>
       </c>
     </row>
   </sheetData>
